--- a/financial_data.xlsx
+++ b/financial_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,429 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.7133432910132</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.446038597869225</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2148966525369892</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.839836543652953</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.02669114848071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.270369174469918</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.75632197401079</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-61.73896853472351</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2403111739745403</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1850117096018735</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03932107496463932</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0.1029175281415116</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.310842170196516</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AOS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.0918568516724</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-12.20558912099263</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1879065210404572</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-15.60932561799659</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.81229561805101</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.635987156018366</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.176308462032647</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-38.08065339458908</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1411661551950899</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1010496352962106</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02915387987724682</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0.02276961291658042</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.970782374766539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AAON</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.94581885356453</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.316865658130411</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2180454493641542</v>
+      </c>
+      <c r="E4" t="n">
+        <v>206.1983312106209</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.3583936417679</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.806849219132993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.16524286090089</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-27.39511841867049</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.3795353586928772</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3795353586928772</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1204901710492724</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.361162804814466</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14.09854563691073</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.364837330331227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09551989035296589</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.7767477665255</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.625716263791301</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.625716263791301</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-50.46687416629613</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.2669491525423729</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.1789613595366942</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.08458279009126467</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0.1270962047661077</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.928986469098346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>38.39355498106175</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.822998016440376</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.758688499142503</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-5.472707847823773</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.33204286595972</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.15132999036961</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.180712875590109</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-49.8434074538052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.04142900030021015</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.02786352884576835</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0322725908135695</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0.1374104598320881</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.740120587756639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.702153668998665</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-37.3496019222863</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07861037051767381</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-76.66169572026018</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.758034913153776</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-6.151966385315691</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.910001298469467</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-52.61437574692802</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.6744067712057469</v>
+      </c>
+      <c r="K7" t="n">
+        <v>70.23730260349978</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04658363403561867</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0.1104213050179825</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.288149103117401</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ABMD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23.02033350793012</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-13.3562563302786</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.527657075332494</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-4.852847817714338</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.38140200286123</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.80199871650654</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.579403286354687</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.2901280732915771</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1253127299484915</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2095758935527095</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.06383976719911</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ABM</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.006146035139288</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.05999124463922</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3013999040704803</v>
+      </c>
+      <c r="E9" t="n">
+        <v>250.0727864085079</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.10699250708253</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.6243710078251762</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.7313635149077</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-11.75208581644815</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.08306010928961749</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.08306010928961749</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04437158469945355</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>0.1602587136183974</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18.0603486874281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.158494477211419</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-15.44331265119985</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.002406700278735076</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-21.78858646538357</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.637176510353308</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.637176510353308</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.2382456792417766</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.04079589006294009</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02988974813117962</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0.5646329025030515</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17.09509131769964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
